--- a/Documentation/planning_133.xlsx
+++ b/Documentation/planning_133.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA4B89B-8F7D-4DD0-B3BB-ED988A000E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED5A77-4F91-4E2A-A6CF-B4A25B90E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>Tâches</t>
   </si>
@@ -1097,6 +1097,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,18 +1175,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,45 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1544,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1556,40 +1556,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1602,26 +1602,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="121" t="s">
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="121"/>
+      <c r="O2" s="134"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1648,20 +1648,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1687,47 +1687,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="106" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="115" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="117"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="130"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="103" t="s">
+      <c r="U4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="103" t="s">
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="105"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="122"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1740,57 +1740,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="126">
         <v>45008</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111">
+      <c r="C5" s="127"/>
+      <c r="D5" s="115">
         <v>45009</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114">
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="113">
         <v>45015</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112">
+      <c r="I5" s="111"/>
+      <c r="J5" s="111">
         <v>45016</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114">
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="113">
         <v>45023</v>
       </c>
-      <c r="O5" s="122"/>
-      <c r="P5" s="111">
+      <c r="O5" s="114"/>
+      <c r="P5" s="115">
         <v>45024</v>
       </c>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="113"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="114">
+      <c r="U5" s="113">
         <v>45043</v>
       </c>
-      <c r="V5" s="122"/>
-      <c r="W5" s="111">
+      <c r="V5" s="114"/>
+      <c r="W5" s="115">
         <v>45044</v>
       </c>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="114">
+      <c r="X5" s="111"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113">
         <v>45050</v>
       </c>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="111">
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="115">
         <v>45051</v>
       </c>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="113"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="112"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1833,13 +1833,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="132" t="s">
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="116" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1874,11 +1874,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="133"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="117"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1913,11 +1913,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="133"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="117"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1952,11 +1952,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="133"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="117"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1991,11 +1991,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="133"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="117"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2030,11 +2030,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="133"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="117"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2069,11 +2069,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="133"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="117"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2106,11 +2106,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="133"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="117"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2145,11 +2145,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="133"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="117"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2184,11 +2184,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="133"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="117"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2221,11 +2221,11 @@
       <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="133"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="117"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2235,7 +2235,9 @@
       <c r="AA16" s="21"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="21"/>
-      <c r="AD16" s="22"/>
+      <c r="AD16" s="74" t="s">
+        <v>12</v>
+      </c>
       <c r="AE16" s="22"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="5"/>
@@ -2258,11 +2260,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="133"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="117"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2295,11 +2297,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="75"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="133"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="117"/>
       <c r="U18" s="85"/>
       <c r="V18" s="74"/>
       <c r="W18" s="21"/>
@@ -2332,11 +2334,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="75"/>
       <c r="O19" s="76"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="133"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="117"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2369,11 +2371,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="75"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="133"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="117"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2406,11 +2408,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="75"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="133"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="117"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2443,11 +2445,11 @@
       <c r="M22" s="25"/>
       <c r="N22" s="75"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="133"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="117"/>
       <c r="U22" s="21"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21"/>
@@ -2480,11 +2482,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="133"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="117"/>
       <c r="U23" s="21"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21"/>
@@ -2517,11 +2519,11 @@
       <c r="M24" s="25"/>
       <c r="N24" s="78"/>
       <c r="O24" s="77"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="133"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="117"/>
       <c r="U24" s="87" t="s">
         <v>12</v>
       </c>
@@ -2542,8 +2544,10 @@
         <v>12</v>
       </c>
       <c r="AB24" s="86"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="22"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="86" t="s">
+        <v>12</v>
+      </c>
       <c r="AE24" s="22"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="5"/>
@@ -2568,11 +2572,11 @@
       <c r="O25" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="133"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="117"/>
       <c r="U25" s="21"/>
       <c r="V25" s="77"/>
       <c r="W25" s="87"/>
@@ -2587,8 +2591,10 @@
       <c r="AB25" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="22"/>
+      <c r="AC25" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="86"/>
       <c r="AE25" s="22"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="5"/>
@@ -2617,11 +2623,11 @@
         <v>12</v>
       </c>
       <c r="O26" s="22"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="133"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="117"/>
       <c r="U26" s="21"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21"/>
@@ -2656,11 +2662,11 @@
       <c r="M27" s="73"/>
       <c r="N27" s="21"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="133"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="117"/>
       <c r="U27" s="21"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
@@ -2693,11 +2699,11 @@
       <c r="M28" s="24"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="133"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="117"/>
       <c r="U28" s="85"/>
       <c r="V28" s="94" t="s">
         <v>12</v>
@@ -2714,8 +2720,10 @@
       <c r="AB28" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="22"/>
+      <c r="AC28" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="74"/>
       <c r="AE28" s="22"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="5"/>
@@ -2744,11 +2752,11 @@
       <c r="O29" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="133"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="117"/>
       <c r="U29" s="85" t="s">
         <v>12</v>
       </c>
@@ -2789,11 +2797,11 @@
       <c r="M30" s="91"/>
       <c r="N30" s="85"/>
       <c r="O30" s="74"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="133"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="117"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2826,11 +2834,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="21"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="133"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="117"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2863,11 +2871,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="133"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="117"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2900,11 +2908,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="79"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="133"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="117"/>
       <c r="U33" s="21"/>
       <c r="V33" s="22"/>
       <c r="W33" s="21"/>
@@ -2937,11 +2945,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="133"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="117"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2974,11 +2982,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="79"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="133"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="117"/>
       <c r="U35" s="21"/>
       <c r="V35" s="74" t="s">
         <v>12</v>
@@ -3015,11 +3023,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="133"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="117"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -3052,11 +3060,11 @@
       <c r="M37" s="24"/>
       <c r="N37" s="21"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="133"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="117"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3089,11 +3097,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="133"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="117"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3130,11 +3138,11 @@
         <v>12</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="133"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="117"/>
       <c r="U39" s="21"/>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
@@ -3167,11 +3175,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="133"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="117"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3204,11 +3212,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="83"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="133"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="117"/>
       <c r="U41" s="85" t="s">
         <v>12</v>
       </c>
@@ -3243,11 +3251,11 @@
       <c r="M42" s="24"/>
       <c r="N42" s="21"/>
       <c r="O42" s="22"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="133"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="117"/>
       <c r="U42" s="21"/>
       <c r="V42" s="22"/>
       <c r="W42" s="21"/>
@@ -3280,11 +3288,11 @@
       <c r="M43" s="24"/>
       <c r="N43" s="21"/>
       <c r="O43" s="22"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="133"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="117"/>
       <c r="U43" s="21"/>
       <c r="V43" s="22"/>
       <c r="W43" s="21"/>
@@ -3321,11 +3329,11 @@
       <c r="M44" s="46"/>
       <c r="N44" s="41"/>
       <c r="O44" s="44"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="128"/>
-      <c r="T44" s="133"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="117"/>
       <c r="U44" s="41"/>
       <c r="V44" s="44"/>
       <c r="W44" s="41"/>
@@ -3358,11 +3366,11 @@
       <c r="M45" s="66"/>
       <c r="N45" s="41"/>
       <c r="O45" s="44"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="128"/>
-      <c r="T45" s="133"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="106"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="117"/>
       <c r="U45" s="41"/>
       <c r="V45" s="44"/>
       <c r="W45" s="41"/>
@@ -3395,11 +3403,11 @@
       <c r="M46" s="67"/>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="131"/>
-      <c r="T46" s="134"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="118"/>
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
       <c r="W46" s="26"/>
@@ -3423,12 +3431,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3445,6 +3447,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S46"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Documentation/planning_133.xlsx
+++ b/Documentation/planning_133.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED5A77-4F91-4E2A-A6CF-B4A25B90E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D3E15-2552-4C05-ACB1-3B8660AC8714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Tâches</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Diagramme de séquence REST Classement</t>
   </si>
   <si>
-    <t>Navigation Classement</t>
-  </si>
-  <si>
     <t>Diagramme de classe Classement</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>Diagramme de classe User</t>
-  </si>
-  <si>
-    <t>Navigation User</t>
   </si>
   <si>
     <t>Diagramme de séquence REST User</t>
@@ -213,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +299,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -838,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1097,6 +1098,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1124,21 +1188,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1148,52 +1197,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1542,10 +1558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1556,40 +1572,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1602,26 +1618,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="134" t="s">
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="134"/>
+      <c r="O2" s="121"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1648,20 +1664,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1687,47 +1703,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="123" t="s">
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="128" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="130"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="117"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="120" t="s">
+      <c r="U4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="120" t="s">
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="122"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="105"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1740,57 +1756,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5" s="109">
         <v>45008</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="115">
+      <c r="C5" s="110"/>
+      <c r="D5" s="111">
         <v>45009</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113">
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114">
         <v>45015</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111">
+      <c r="I5" s="112"/>
+      <c r="J5" s="112">
         <v>45016</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113">
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114">
         <v>45023</v>
       </c>
-      <c r="O5" s="114"/>
-      <c r="P5" s="115">
+      <c r="O5" s="122"/>
+      <c r="P5" s="111">
         <v>45024</v>
       </c>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="113"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="113">
+      <c r="U5" s="114">
         <v>45043</v>
       </c>
-      <c r="V5" s="114"/>
-      <c r="W5" s="115">
+      <c r="V5" s="122"/>
+      <c r="W5" s="111">
         <v>45044</v>
       </c>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="113">
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="114">
         <v>45050</v>
       </c>
-      <c r="AB5" s="114"/>
-      <c r="AC5" s="115">
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="111">
         <v>45051</v>
       </c>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="113"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1833,13 +1849,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="102" t="s">
+      <c r="P6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="116" t="s">
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="132" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1874,11 +1890,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="117"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="133"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1913,11 +1929,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="117"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="133"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1952,11 +1968,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="117"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="133"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -1991,11 +2007,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="117"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="133"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2030,11 +2046,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="117"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="133"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2069,11 +2085,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="117"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="133"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2106,11 +2122,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="117"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="133"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2127,7 +2143,7 @@
     </row>
     <row r="14" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="30"/>
@@ -2145,11 +2161,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="105"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="117"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="133"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2166,7 +2182,7 @@
     </row>
     <row r="15" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="30"/>
@@ -2184,11 +2200,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="117"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="133"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2205,7 +2221,7 @@
     </row>
     <row r="16" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="30"/>
@@ -2221,11 +2237,11 @@
       <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="117"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="133"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2260,11 +2276,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="117"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="133"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2297,11 +2313,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="75"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="117"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="133"/>
       <c r="U18" s="85"/>
       <c r="V18" s="74"/>
       <c r="W18" s="21"/>
@@ -2334,11 +2350,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="75"/>
       <c r="O19" s="76"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="117"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="133"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2353,9 +2369,9 @@
       <c r="AF19" s="23"/>
       <c r="AG19" s="5"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
-        <v>39</v>
+    <row r="20" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="30"/>
@@ -2371,11 +2387,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="75"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="117"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="133"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2386,13 +2402,15 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
+      <c r="AE20" s="74" t="s">
+        <v>12</v>
+      </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="5"/>
     </row>
-    <row r="21" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>54</v>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="30"/>
@@ -2406,13 +2424,13 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="117"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="133"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2428,8 +2446,8 @@
       <c r="AG21" s="5"/>
     </row>
     <row r="22" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>53</v>
+      <c r="A22" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="30"/>
@@ -2443,30 +2461,46 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="139" t="s">
+        <v>12</v>
+      </c>
       <c r="AF22" s="23"/>
       <c r="AG22" s="5"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>11</v>
+    <row r="23" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="30"/>
@@ -2481,29 +2515,39 @@
       <c r="L23" s="22"/>
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="117"/>
+      <c r="O23" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="133"/>
       <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="22"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="86"/>
       <c r="AE23" s="22"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="5"/>
     </row>
     <row r="24" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>24</v>
+      <c r="A24" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="30"/>
@@ -2515,45 +2559,37 @@
       <c r="I24" s="22"/>
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="86" t="s">
-        <v>12</v>
-      </c>
+      <c r="L24" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="22"/>
       <c r="AE24" s="22"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="5"/>
     </row>
     <row r="25" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="21"/>
@@ -2566,42 +2602,34 @@
       <c r="I25" s="22"/>
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="25"/>
+      <c r="L25" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="73"/>
       <c r="N25" s="21"/>
-      <c r="O25" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="117"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="133"/>
       <c r="U25" s="21"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD25" s="86"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="5"/>
     </row>
     <row r="26" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>40</v>
+      <c r="A26" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="30"/>
@@ -2613,38 +2641,42 @@
       <c r="I26" s="22"/>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="87" t="s">
-        <v>12</v>
-      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="22"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="74"/>
       <c r="AE26" s="22"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="5"/>
     </row>
     <row r="27" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>42</v>
+      <c r="A27" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="30"/>
@@ -2656,23 +2688,33 @@
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="73"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="21"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="85" t="s">
+        <v>12</v>
+      </c>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="23"/>
+      <c r="X27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="89"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="21"/>
@@ -2682,8 +2724,8 @@
       <c r="AG27" s="5"/>
     </row>
     <row r="28" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
-        <v>52</v>
+      <c r="A28" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="30"/>
@@ -2695,42 +2737,34 @@
       <c r="I28" s="22"/>
       <c r="J28" s="21"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="W28" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB28" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC28" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD28" s="74"/>
+      <c r="L28" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="91"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="22"/>
       <c r="AE28" s="22"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="5"/>
     </row>
     <row r="29" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>50</v>
+      <c r="A29" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="30"/>
@@ -2742,33 +2776,21 @@
       <c r="I29" s="22"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="N29" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="O29" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="85" t="s">
-        <v>12</v>
-      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="89"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="23"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="22"/>
       <c r="AC29" s="21"/>
@@ -2778,8 +2800,8 @@
       <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>51</v>
+      <c r="A30" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="30"/>
@@ -2791,23 +2813,21 @@
       <c r="I30" s="22"/>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="91"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="117"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="133"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="23"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="89"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="21"/>
@@ -2817,8 +2837,8 @@
       <c r="AG30" s="5"/>
     </row>
     <row r="31" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>26</v>
+      <c r="A31" s="57" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="30"/>
@@ -2832,13 +2852,13 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="117"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="133"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2854,8 +2874,8 @@
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>27</v>
+      <c r="A32" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="30"/>
@@ -2871,17 +2891,17 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="117"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="133"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="89"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="98"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
       <c r="AC32" s="21"/>
@@ -2891,8 +2911,8 @@
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>43</v>
+      <c r="A33" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="30"/>
@@ -2908,17 +2928,21 @@
       <c r="M33" s="24"/>
       <c r="N33" s="79"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="117"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="133"/>
       <c r="U33" s="21"/>
-      <c r="V33" s="22"/>
+      <c r="V33" s="74" t="s">
+        <v>12</v>
+      </c>
       <c r="W33" s="21"/>
       <c r="X33" s="22"/>
       <c r="Y33" s="22"/>
-      <c r="Z33" s="23"/>
+      <c r="Z33" s="74" t="s">
+        <v>12</v>
+      </c>
       <c r="AA33" s="21"/>
       <c r="AB33" s="22"/>
       <c r="AC33" s="21"/>
@@ -2928,8 +2952,8 @@
       <c r="AG33" s="5"/>
     </row>
     <row r="34" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
-        <v>44</v>
+      <c r="A34" s="56" t="s">
+        <v>48</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="30"/>
@@ -2945,11 +2969,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="117"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="133"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -2965,8 +2989,8 @@
       <c r="AG34" s="5"/>
     </row>
     <row r="35" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>48</v>
+      <c r="A35" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="30"/>
@@ -2980,23 +3004,19 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="24"/>
-      <c r="N35" s="79"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="117"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="133"/>
       <c r="U35" s="21"/>
-      <c r="V35" s="74" t="s">
-        <v>12</v>
-      </c>
+      <c r="V35" s="22"/>
       <c r="W35" s="21"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
-      <c r="Z35" s="74" t="s">
-        <v>12</v>
-      </c>
+      <c r="Z35" s="23"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="22"/>
       <c r="AC35" s="21"/>
@@ -3006,8 +3026,8 @@
       <c r="AG35" s="5"/>
     </row>
     <row r="36" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>49</v>
+      <c r="A36" s="81" t="s">
+        <v>34</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="30"/>
@@ -3023,18 +3043,20 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="117"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="133"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="21"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="83"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="22"/>
@@ -3043,8 +3065,8 @@
       <c r="AG36" s="5"/>
     </row>
     <row r="37" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>10</v>
+      <c r="A37" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="30"/>
@@ -3058,13 +3080,15 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="24"/>
-      <c r="N37" s="21"/>
+      <c r="N37" s="92" t="s">
+        <v>12</v>
+      </c>
       <c r="O37" s="22"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="117"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="133"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3080,8 +3104,8 @@
       <c r="AG37" s="5"/>
     </row>
     <row r="38" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
-        <v>34</v>
+      <c r="A38" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="30"/>
@@ -3097,30 +3121,28 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="117"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="133"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
       <c r="X38" s="22"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA38" s="83"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>33</v>
+      <c r="A39" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="30"/>
@@ -3134,16 +3156,16 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="92" t="s">
-        <v>12</v>
-      </c>
+      <c r="N39" s="83"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="21"/>
+      <c r="P39" s="126"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="85" t="s">
+        <v>12</v>
+      </c>
       <c r="V39" s="22"/>
       <c r="W39" s="21"/>
       <c r="X39" s="22"/>
@@ -3158,8 +3180,8 @@
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>45</v>
+      <c r="A40" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="30"/>
@@ -3175,11 +3197,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="117"/>
+      <c r="P40" s="126"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="128"/>
+      <c r="T40" s="133"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3194,9 +3216,9 @@
       <c r="AF40" s="23"/>
       <c r="AG40" s="5"/>
     </row>
-    <row r="41" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>46</v>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="s">
+        <v>28</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="30"/>
@@ -3210,16 +3232,14 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="24"/>
-      <c r="N41" s="83"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="85" t="s">
-        <v>12</v>
-      </c>
+      <c r="P41" s="126"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="133"/>
+      <c r="U41" s="21"/>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
       <c r="X41" s="22"/>
@@ -3233,204 +3253,138 @@
       <c r="AF41" s="23"/>
       <c r="AG41" s="5"/>
     </row>
-    <row r="42" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="68"/>
-      <c r="AC42" s="83"/>
-      <c r="AD42" s="68"/>
-      <c r="AE42" s="68"/>
-      <c r="AF42" s="23"/>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="63"/>
+      <c r="L42" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="46"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="45"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="22"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="23"/>
+      <c r="A43" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="133"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="99"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="99"/>
       <c r="AG43" s="5"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="63"/>
-      <c r="L44" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="46"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="41"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="45"/>
+        <v>31</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="129"/>
+      <c r="Q44" s="130"/>
+      <c r="R44" s="130"/>
+      <c r="S44" s="131"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF44" s="100"/>
       <c r="AG44" s="5"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="99"/>
-      <c r="AG45" s="5"/>
-    </row>
-    <row r="46" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="100"/>
-      <c r="AG46" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80" t="s">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="80" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S44"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T44"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3447,12 +3401,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S46"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Documentation/planning_133.xlsx
+++ b/Documentation/planning_133.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D3E15-2552-4C05-ACB1-3B8660AC8714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78EFD9-AE78-4324-A9FE-9FEF872190F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10350" yWindow="6390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Tâches</t>
   </si>
@@ -1098,6 +1098,72 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,18 +1191,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,60 +1210,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1560,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1572,40 +1572,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1618,26 +1618,26 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="121" t="s">
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="121"/>
+      <c r="O2" s="139"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1664,20 +1664,20 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
@@ -1703,47 +1703,47 @@
       <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="106" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="115" t="s">
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="117"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="135"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="103" t="s">
+      <c r="U4" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="103" t="s">
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="105"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="127"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="33"/>
       <c r="AI4" s="33"/>
@@ -1756,57 +1756,57 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="131">
         <v>45008</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111">
+      <c r="C5" s="132"/>
+      <c r="D5" s="120">
         <v>45009</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114">
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118">
         <v>45015</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112">
+      <c r="I5" s="116"/>
+      <c r="J5" s="116">
         <v>45016</v>
       </c>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114">
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118">
         <v>45023</v>
       </c>
-      <c r="O5" s="122"/>
-      <c r="P5" s="111">
+      <c r="O5" s="119"/>
+      <c r="P5" s="120">
         <v>45024</v>
       </c>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="113"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="117"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="114">
+      <c r="U5" s="118">
         <v>45043</v>
       </c>
-      <c r="V5" s="122"/>
-      <c r="W5" s="111">
+      <c r="V5" s="119"/>
+      <c r="W5" s="120">
         <v>45044</v>
       </c>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="114">
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="118">
         <v>45050</v>
       </c>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="111">
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="120">
         <v>45051</v>
       </c>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="113"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="117"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1849,13 +1849,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="132" t="s">
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="121" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1890,11 +1890,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="133"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="122"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1929,11 +1929,11 @@
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="133"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="122"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1968,11 +1968,11 @@
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127"/>
-      <c r="R9" s="127"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="133"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="122"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -2007,11 +2007,11 @@
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="133"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="122"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2046,11 +2046,11 @@
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="133"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="122"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2085,11 +2085,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="133"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="112"/>
+      <c r="T12" s="122"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2122,11 +2122,11 @@
       <c r="M13" s="65"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="133"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="122"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2138,7 +2138,9 @@
       <c r="AC13" s="21"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
-      <c r="AF13" s="23"/>
+      <c r="AF13" s="88" t="s">
+        <v>12</v>
+      </c>
       <c r="AG13" s="5"/>
     </row>
     <row r="14" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2161,11 +2163,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="133"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="122"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2200,11 +2202,11 @@
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="133"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="122"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2237,11 +2239,11 @@
       <c r="M16" s="70"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="133"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="122"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
@@ -2276,11 +2278,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="133"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="122"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2313,11 +2315,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="75"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="133"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="122"/>
       <c r="U18" s="85"/>
       <c r="V18" s="74"/>
       <c r="W18" s="21"/>
@@ -2329,7 +2331,9 @@
       <c r="AC18" s="21"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="23"/>
+      <c r="AF18" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG18" s="5"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -2350,11 +2354,11 @@
       <c r="M19" s="25"/>
       <c r="N19" s="75"/>
       <c r="O19" s="76"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="133"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="122"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2366,7 +2370,9 @@
       <c r="AC19" s="21"/>
       <c r="AD19" s="22"/>
       <c r="AE19" s="22"/>
-      <c r="AF19" s="23"/>
+      <c r="AF19" s="88" t="s">
+        <v>12</v>
+      </c>
       <c r="AG19" s="5"/>
     </row>
     <row r="20" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2387,11 +2393,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="75"/>
       <c r="O20" s="76"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="133"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="122"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2426,11 +2432,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="21"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="133"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="122"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2463,36 +2469,36 @@
       <c r="M22" s="25"/>
       <c r="N22" s="78"/>
       <c r="O22" s="77"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="135" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="135" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="136" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="138" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="139" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE22" s="139" t="s">
+      <c r="P22" s="110"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="106" t="s">
         <v>12</v>
       </c>
       <c r="AF22" s="23"/>
@@ -2518,11 +2524,11 @@
       <c r="O23" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="133"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="122"/>
       <c r="U23" s="21"/>
       <c r="V23" s="77"/>
       <c r="W23" s="87"/>
@@ -2569,11 +2575,11 @@
         <v>12</v>
       </c>
       <c r="O24" s="22"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="133"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="122"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21"/>
@@ -2608,11 +2614,11 @@
       <c r="M25" s="73"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="133"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="122"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
@@ -2645,11 +2651,11 @@
       <c r="M26" s="24"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="133"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="122"/>
       <c r="U26" s="85"/>
       <c r="V26" s="94" t="s">
         <v>12</v>
@@ -2698,11 +2704,11 @@
       <c r="O27" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="133"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="122"/>
       <c r="U27" s="85" t="s">
         <v>12</v>
       </c>
@@ -2743,11 +2749,11 @@
       <c r="M28" s="91"/>
       <c r="N28" s="85"/>
       <c r="O28" s="74"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="133"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="122"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
@@ -2780,11 +2786,11 @@
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="133"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="122"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
@@ -2817,11 +2823,11 @@
       <c r="M30" s="24"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="133"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="122"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
@@ -2854,11 +2860,11 @@
       <c r="M31" s="24"/>
       <c r="N31" s="79"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="133"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="122"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2891,11 +2897,11 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="133"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="122"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
@@ -2928,11 +2934,11 @@
       <c r="M33" s="24"/>
       <c r="N33" s="79"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="133"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="122"/>
       <c r="U33" s="21"/>
       <c r="V33" s="74" t="s">
         <v>12</v>
@@ -2969,11 +2975,11 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="126"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="133"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="112"/>
+      <c r="T34" s="122"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
@@ -3006,11 +3012,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="133"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="122"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -3043,11 +3049,11 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="133"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="112"/>
+      <c r="T36" s="122"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
@@ -3084,11 +3090,11 @@
         <v>12</v>
       </c>
       <c r="O37" s="22"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="133"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="112"/>
+      <c r="T37" s="122"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3121,11 +3127,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="133"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="112"/>
+      <c r="T38" s="122"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3137,7 +3143,9 @@
       <c r="AC38" s="83"/>
       <c r="AD38" s="68"/>
       <c r="AE38" s="68"/>
-      <c r="AF38" s="23"/>
+      <c r="AF38" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3158,11 +3166,11 @@
       <c r="M39" s="24"/>
       <c r="N39" s="83"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="133"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="112"/>
+      <c r="T39" s="122"/>
       <c r="U39" s="85" t="s">
         <v>12</v>
       </c>
@@ -3197,11 +3205,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="133"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="122"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3213,7 +3221,9 @@
       <c r="AC40" s="83"/>
       <c r="AD40" s="68"/>
       <c r="AE40" s="68"/>
-      <c r="AF40" s="23"/>
+      <c r="AF40" s="23" t="s">
+        <v>12</v>
+      </c>
       <c r="AG40" s="5"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
@@ -3234,11 +3244,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="133"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="122"/>
       <c r="U41" s="21"/>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
@@ -3275,11 +3285,11 @@
       <c r="M42" s="46"/>
       <c r="N42" s="41"/>
       <c r="O42" s="44"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="133"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="122"/>
       <c r="U42" s="41"/>
       <c r="V42" s="44"/>
       <c r="W42" s="41"/>
@@ -3312,11 +3322,11 @@
       <c r="M43" s="66"/>
       <c r="N43" s="41"/>
       <c r="O43" s="44"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="133"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="112"/>
+      <c r="T43" s="122"/>
       <c r="U43" s="41"/>
       <c r="V43" s="44"/>
       <c r="W43" s="41"/>
@@ -3349,11 +3359,11 @@
       <c r="M44" s="67"/>
       <c r="N44" s="26"/>
       <c r="O44" s="27"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="130"/>
-      <c r="R44" s="130"/>
-      <c r="S44" s="131"/>
-      <c r="T44" s="134"/>
+      <c r="P44" s="113"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="115"/>
+      <c r="T44" s="123"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27"/>
       <c r="W44" s="26"/>
@@ -3379,12 +3389,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="P6:S44"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T44"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3401,6 +3405,12 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="P6:S44"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Documentation/planning_133.xlsx
+++ b/Documentation/planning_133.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133-Exercices\133_Memory\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF78EFD9-AE78-4324-A9FE-9FEF872190F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10150F98-5B32-43AC-B552-422C58794580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10350" yWindow="6390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planning " sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>serviceRest Classement</t>
   </si>
   <si>
-    <t>Classement</t>
-  </si>
-  <si>
     <t>base de données Classement</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>base de données User</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>Diagramme de classe User</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>Use Case User</t>
+  </si>
+  <si>
+    <t>Client Classement</t>
+  </si>
+  <si>
+    <t>Client User</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -867,53 +867,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,25 +924,25 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1018,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,10 +1034,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,19 +1045,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,7 +1075,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,23 +1093,80 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1125,7 +1180,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,21 +1195,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1163,54 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1572,40 +1564,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="103"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
@@ -1618,195 +1610,189 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="139" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="139"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
     </row>
     <row r="3" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="128" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="133" t="s">
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="135"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="118"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="125" t="s">
+      <c r="U4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="125" t="s">
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="127"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="106"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="131">
+      <c r="B5" s="110">
         <v>45008</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="120">
+      <c r="C5" s="111"/>
+      <c r="D5" s="112">
         <v>45009</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118">
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115">
         <v>45015</v>
       </c>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116">
+      <c r="I5" s="113"/>
+      <c r="J5" s="113">
         <v>45016</v>
       </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118">
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="115">
         <v>45023</v>
       </c>
-      <c r="O5" s="119"/>
-      <c r="P5" s="120">
+      <c r="O5" s="123"/>
+      <c r="P5" s="112">
         <v>45024</v>
       </c>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="117"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="114"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="118">
+      <c r="U5" s="115">
         <v>45043</v>
       </c>
-      <c r="V5" s="119"/>
-      <c r="W5" s="120">
+      <c r="V5" s="123"/>
+      <c r="W5" s="112">
         <v>45044</v>
       </c>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="118">
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="115">
         <v>45050</v>
       </c>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="120">
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="112">
         <v>45051</v>
       </c>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="117"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="114"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -1819,28 +1805,28 @@
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="35" t="s">
+      <c r="B6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="18"/>
@@ -1849,13 +1835,13 @@
       <c r="M6" s="20"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="107" t="s">
+      <c r="P6" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="121" t="s">
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="133" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="19"/>
@@ -1890,11 +1876,11 @@
       <c r="M7" s="24"/>
       <c r="N7" s="21"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="122"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="134"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21"/>
@@ -1922,18 +1908,18 @@
       <c r="H8" s="21"/>
       <c r="I8" s="22"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="64"/>
+      <c r="K8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="62"/>
       <c r="M8" s="24"/>
       <c r="N8" s="21"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="122"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="128"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="134"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21"/>
@@ -1961,18 +1947,18 @@
       <c r="H9" s="21"/>
       <c r="I9" s="22"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="64"/>
+      <c r="K9" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="62"/>
       <c r="M9" s="24"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="122"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="134"/>
       <c r="U9" s="21"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21"/>
@@ -2000,18 +1986,18 @@
       <c r="H10" s="21"/>
       <c r="I10" s="22"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64" t="s">
+      <c r="K10" s="62"/>
+      <c r="L10" s="62" t="s">
         <v>12</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="21"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="122"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="134"/>
       <c r="U10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21"/>
@@ -2027,7 +2013,7 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="21"/>
@@ -2039,18 +2025,18 @@
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="64"/>
+      <c r="K11" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="62"/>
       <c r="M11" s="24"/>
       <c r="N11" s="21"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="122"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="134"/>
       <c r="U11" s="21"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21"/>
@@ -2066,7 +2052,7 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="21"/>
@@ -2078,18 +2064,18 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="64"/>
+      <c r="K12" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="62"/>
       <c r="M12" s="24"/>
       <c r="N12" s="21"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="122"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="134"/>
       <c r="U12" s="21"/>
       <c r="V12" s="22"/>
       <c r="W12" s="21"/>
@@ -2105,7 +2091,7 @@
       <c r="AG12" s="5"/>
     </row>
     <row r="13" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="38" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="21"/>
@@ -2117,16 +2103,16 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="21"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="122"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="134"/>
       <c r="U13" s="21"/>
       <c r="V13" s="22"/>
       <c r="W13" s="21"/>
@@ -2138,14 +2124,14 @@
       <c r="AC13" s="21"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
-      <c r="AF13" s="88" t="s">
+      <c r="AF13" s="86" t="s">
         <v>12</v>
       </c>
       <c r="AG13" s="5"/>
     </row>
     <row r="14" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>55</v>
+      <c r="A14" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="30"/>
@@ -2156,18 +2142,18 @@
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="64"/>
+      <c r="K14" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="62"/>
       <c r="M14" s="24"/>
       <c r="N14" s="21"/>
       <c r="O14" s="22"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="122"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="134"/>
       <c r="U14" s="21"/>
       <c r="V14" s="22"/>
       <c r="W14" s="21"/>
@@ -2183,8 +2169,8 @@
       <c r="AG14" s="5"/>
     </row>
     <row r="15" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>54</v>
+      <c r="A15" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="30"/>
@@ -2195,18 +2181,18 @@
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="64"/>
+      <c r="K15" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="62"/>
       <c r="M15" s="24"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="122"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="134"/>
       <c r="U15" s="21"/>
       <c r="V15" s="22"/>
       <c r="W15" s="21"/>
@@ -2222,8 +2208,8 @@
       <c r="AG15" s="5"/>
     </row>
     <row r="16" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>53</v>
+      <c r="A16" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="30"/>
@@ -2234,26 +2220,26 @@
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="70"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="122"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="134"/>
       <c r="U16" s="21"/>
       <c r="V16" s="22"/>
       <c r="W16" s="21"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
-      <c r="Z16" s="95"/>
+      <c r="Z16" s="93"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="21"/>
-      <c r="AD16" s="74" t="s">
+      <c r="AD16" s="72" t="s">
         <v>12</v>
       </c>
       <c r="AE16" s="22"/>
@@ -2278,11 +2264,11 @@
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="122"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="134"/>
       <c r="U17" s="21"/>
       <c r="V17" s="22"/>
       <c r="W17" s="21"/>
@@ -2313,15 +2299,15 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="74"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="72"/>
       <c r="W18" s="21"/>
       <c r="X18" s="22"/>
       <c r="Y18" s="22"/>
@@ -2337,7 +2323,7 @@
       <c r="AG18" s="5"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="21"/>
@@ -2352,13 +2338,13 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="122"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="134"/>
       <c r="U19" s="21"/>
       <c r="V19" s="22"/>
       <c r="W19" s="21"/>
@@ -2370,14 +2356,14 @@
       <c r="AC19" s="21"/>
       <c r="AD19" s="22"/>
       <c r="AE19" s="22"/>
-      <c r="AF19" s="88" t="s">
+      <c r="AF19" s="86" t="s">
         <v>12</v>
       </c>
       <c r="AG19" s="5"/>
     </row>
     <row r="20" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>52</v>
+      <c r="A20" s="50" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="30"/>
@@ -2391,13 +2377,13 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="122"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="128"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="134"/>
       <c r="U20" s="21"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21"/>
@@ -2408,7 +2394,7 @@
       <c r="AB20" s="22"/>
       <c r="AC20" s="21"/>
       <c r="AD20" s="22"/>
-      <c r="AE20" s="74" t="s">
+      <c r="AE20" s="72" t="s">
         <v>12</v>
       </c>
       <c r="AF20" s="23"/>
@@ -2432,11 +2418,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="21"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="122"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="21"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21"/>
@@ -2467,46 +2453,46 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="105"/>
-      <c r="AD22" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE22" s="106" t="s">
+      <c r="N22" s="76"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="102" t="s">
         <v>12</v>
       </c>
       <c r="AF22" s="23"/>
       <c r="AG22" s="5"/>
     </row>
     <row r="23" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>40</v>
+      <c r="A23" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="30"/>
@@ -2521,38 +2507,38 @@
       <c r="L23" s="22"/>
       <c r="M23" s="25"/>
       <c r="N23" s="21"/>
-      <c r="O23" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="122"/>
+      <c r="O23" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="134"/>
       <c r="U23" s="21"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC23" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD23" s="86"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD23" s="84"/>
       <c r="AE23" s="22"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="5"/>
     </row>
     <row r="24" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="57" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="21"/>
@@ -2565,21 +2551,21 @@
       <c r="I24" s="22"/>
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="87" t="s">
+      <c r="L24" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="85" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="22"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="122"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="134"/>
       <c r="U24" s="21"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21"/>
@@ -2595,8 +2581,8 @@
       <c r="AG24" s="5"/>
     </row>
     <row r="25" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
-        <v>41</v>
+      <c r="A25" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="30"/>
@@ -2608,17 +2594,17 @@
       <c r="I25" s="22"/>
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="73"/>
+      <c r="L25" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="71"/>
       <c r="N25" s="21"/>
       <c r="O25" s="22"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="122"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="134"/>
       <c r="U25" s="21"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21"/>
@@ -2634,8 +2620,8 @@
       <c r="AG25" s="5"/>
     </row>
     <row r="26" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>51</v>
+      <c r="A26" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="30"/>
@@ -2651,38 +2637,38 @@
       <c r="M26" s="24"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="W26" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB26" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC26" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD26" s="74"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="83"/>
+      <c r="V26" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD26" s="72"/>
       <c r="AE26" s="22"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="5"/>
     </row>
     <row r="27" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>49</v>
+      <c r="A27" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="30"/>
@@ -2694,33 +2680,33 @@
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="85" t="s">
+      <c r="L27" s="72"/>
+      <c r="M27" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="83" t="s">
         <v>12</v>
       </c>
       <c r="V27" s="22"/>
       <c r="W27" s="21"/>
-      <c r="X27" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z27" s="89"/>
+      <c r="X27" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z27" s="87"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="22"/>
       <c r="AC27" s="21"/>
@@ -2730,8 +2716,8 @@
       <c r="AG27" s="5"/>
     </row>
     <row r="28" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>50</v>
+      <c r="A28" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="30"/>
@@ -2743,17 +2729,17 @@
       <c r="I28" s="22"/>
       <c r="J28" s="21"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="122"/>
+      <c r="L28" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="89"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="134"/>
       <c r="U28" s="21"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21"/>
@@ -2769,7 +2755,7 @@
       <c r="AG28" s="5"/>
     </row>
     <row r="29" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="21"/>
@@ -2786,11 +2772,11 @@
       <c r="M29" s="24"/>
       <c r="N29" s="21"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="122"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="134"/>
       <c r="U29" s="21"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
@@ -2806,7 +2792,7 @@
       <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="21"/>
@@ -2823,17 +2809,17 @@
       <c r="M30" s="24"/>
       <c r="N30" s="21"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="122"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="134"/>
       <c r="U30" s="21"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
       <c r="X30" s="22"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="89"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="87"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="21"/>
@@ -2843,8 +2829,8 @@
       <c r="AG30" s="5"/>
     </row>
     <row r="31" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>42</v>
+      <c r="A31" s="55" t="s">
+        <v>41</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="30"/>
@@ -2858,13 +2844,13 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="24"/>
-      <c r="N31" s="79"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="22"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="122"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="134"/>
       <c r="U31" s="21"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
@@ -2880,8 +2866,8 @@
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
-        <v>43</v>
+      <c r="A32" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="30"/>
@@ -2897,17 +2883,17 @@
       <c r="M32" s="24"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="122"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="134"/>
       <c r="U32" s="21"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
-      <c r="Z32" s="98"/>
+      <c r="Z32" s="96"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="22"/>
       <c r="AC32" s="21"/>
@@ -2917,8 +2903,8 @@
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
-        <v>47</v>
+      <c r="A33" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="30"/>
@@ -2932,21 +2918,21 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="79"/>
+      <c r="N33" s="77"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="122"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="134"/>
       <c r="U33" s="21"/>
-      <c r="V33" s="74" t="s">
+      <c r="V33" s="72" t="s">
         <v>12</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="22"/>
       <c r="Y33" s="22"/>
-      <c r="Z33" s="74" t="s">
+      <c r="Z33" s="72" t="s">
         <v>12</v>
       </c>
       <c r="AA33" s="21"/>
@@ -2958,8 +2944,8 @@
       <c r="AG33" s="5"/>
     </row>
     <row r="34" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
-        <v>48</v>
+      <c r="A34" s="54" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="30"/>
@@ -2975,17 +2961,17 @@
       <c r="M34" s="24"/>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="122"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="134"/>
       <c r="U34" s="21"/>
       <c r="V34" s="22"/>
       <c r="W34" s="21"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
-      <c r="Z34" s="98"/>
+      <c r="Z34" s="96"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="22"/>
       <c r="AC34" s="21"/>
@@ -3012,11 +2998,11 @@
       <c r="M35" s="24"/>
       <c r="N35" s="21"/>
       <c r="O35" s="22"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="122"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="134"/>
       <c r="U35" s="21"/>
       <c r="V35" s="22"/>
       <c r="W35" s="21"/>
@@ -3032,7 +3018,7 @@
       <c r="AG35" s="5"/>
     </row>
     <row r="36" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="79" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="21"/>
@@ -3049,20 +3035,20 @@
       <c r="M36" s="24"/>
       <c r="N36" s="21"/>
       <c r="O36" s="22"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="112"/>
-      <c r="T36" s="122"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="134"/>
       <c r="U36" s="21"/>
       <c r="V36" s="22"/>
       <c r="W36" s="21"/>
       <c r="X36" s="22"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA36" s="83"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA36" s="81"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="22"/>
@@ -3071,7 +3057,7 @@
       <c r="AG36" s="5"/>
     </row>
     <row r="37" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="21"/>
@@ -3086,15 +3072,15 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="24"/>
-      <c r="N37" s="92" t="s">
+      <c r="N37" s="90" t="s">
         <v>12</v>
       </c>
       <c r="O37" s="22"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="122"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="134"/>
       <c r="U37" s="21"/>
       <c r="V37" s="22"/>
       <c r="W37" s="21"/>
@@ -3110,8 +3096,8 @@
       <c r="AG37" s="5"/>
     </row>
     <row r="38" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>44</v>
+      <c r="A38" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="30"/>
@@ -3127,11 +3113,11 @@
       <c r="M38" s="24"/>
       <c r="N38" s="21"/>
       <c r="O38" s="22"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="122"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="134"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
       <c r="W38" s="21"/>
@@ -3139,18 +3125,18 @@
       <c r="Y38" s="22"/>
       <c r="Z38" s="23"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="83"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="81"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
       <c r="AF38" s="23" t="s">
         <v>12</v>
       </c>
       <c r="AG38" s="5"/>
     </row>
     <row r="39" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
-        <v>45</v>
+      <c r="A39" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="30"/>
@@ -3164,14 +3150,14 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="24"/>
-      <c r="N39" s="83"/>
+      <c r="N39" s="81"/>
       <c r="O39" s="22"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="85" t="s">
+      <c r="P39" s="127"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="83" t="s">
         <v>12</v>
       </c>
       <c r="V39" s="22"/>
@@ -3188,8 +3174,8 @@
       <c r="AG39" s="5"/>
     </row>
     <row r="40" spans="1:33" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
-        <v>46</v>
+      <c r="A40" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="30"/>
@@ -3205,11 +3191,11 @@
       <c r="M40" s="24"/>
       <c r="N40" s="21"/>
       <c r="O40" s="22"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="122"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="128"/>
+      <c r="R40" s="128"/>
+      <c r="S40" s="129"/>
+      <c r="T40" s="134"/>
       <c r="U40" s="21"/>
       <c r="V40" s="22"/>
       <c r="W40" s="21"/>
@@ -3217,17 +3203,17 @@
       <c r="Y40" s="22"/>
       <c r="Z40" s="23"/>
       <c r="AA40" s="21"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="83"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="81"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
       <c r="AF40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="AG40" s="5"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="80" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="21"/>
@@ -3244,11 +3230,11 @@
       <c r="M41" s="24"/>
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="122"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="134"/>
       <c r="U41" s="21"/>
       <c r="V41" s="22"/>
       <c r="W41" s="21"/>
@@ -3264,85 +3250,85 @@
       <c r="AG41" s="5"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="63"/>
-      <c r="L42" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="46"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="45"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="61"/>
+      <c r="L42" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="44"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="129"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="43"/>
       <c r="AG42" s="5"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="99"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="97"/>
       <c r="AG43" s="5"/>
     </row>
     <row r="44" spans="1:33" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="26"/>
@@ -3356,14 +3342,14 @@
       <c r="J44" s="26"/>
       <c r="K44" s="27"/>
       <c r="L44" s="27"/>
-      <c r="M44" s="67"/>
+      <c r="M44" s="65"/>
       <c r="N44" s="26"/>
       <c r="O44" s="27"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="115"/>
-      <c r="T44" s="123"/>
+      <c r="P44" s="130"/>
+      <c r="Q44" s="131"/>
+      <c r="R44" s="131"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="135"/>
       <c r="U44" s="26"/>
       <c r="V44" s="27"/>
       <c r="W44" s="26"/>
@@ -3371,7 +3357,7 @@
       <c r="Y44" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Z44" s="100"/>
+      <c r="Z44" s="98"/>
       <c r="AA44" s="26"/>
       <c r="AB44" s="27"/>
       <c r="AC44" s="26"/>
@@ -3379,16 +3365,22 @@
       <c r="AE44" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AF44" s="100"/>
+      <c r="AF44" s="98"/>
       <c r="AG44" s="5"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="78" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P6:S44"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="T6:T44"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AA4:AF4"/>
     <mergeCell ref="H4:M4"/>
@@ -3405,12 +3397,6 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AF5"/>
     <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="P6:S44"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="T6:T44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
